--- a/Notes/Leather_논리적물리적설계.xlsx
+++ b/Notes/Leather_논리적물리적설계.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="168">
   <si>
     <t>회원</t>
   </si>
@@ -555,59 +555,67 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>deliver_no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deliver_address</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deliver_recipient</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>product_title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>product_origin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>notice_contents</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>notice_views</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>notice_state</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qna_product_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qna_contents</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>review_product_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>upload_product_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>upload_filename</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>basket_total</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>deliver_no</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>deliver_address</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>deliver_recipient</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>product_title</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>product_origin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>notice_contents</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>notice_views</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>notice_state</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>qna_product_code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>qna_contents</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>review_product_code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>upload_product_code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>upload_filename</t>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1297,7 +1305,7 @@
   <dimension ref="B3:J49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1450,7 +1458,7 @@
         <v>122</v>
       </c>
       <c r="F10" s="46" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11" spans="2:10" s="27" customFormat="1" x14ac:dyDescent="0.3">
@@ -1467,7 +1475,7 @@
         <v>12</v>
       </c>
       <c r="F11" s="43" t="s">
-        <v>9</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="2:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -1577,7 +1585,7 @@
         <v>12</v>
       </c>
       <c r="J16" s="43" t="s">
-        <v>124</v>
+        <v>167</v>
       </c>
     </row>
     <row r="17" spans="2:9" s="27" customFormat="1" x14ac:dyDescent="0.3">
@@ -1625,16 +1633,16 @@
     </row>
     <row r="20" spans="2:9" s="27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B20" s="48" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C20" s="42" t="s">
         <v>91</v>
       </c>
       <c r="D20" s="37" t="s">
+        <v>153</v>
+      </c>
+      <c r="E20" s="37" t="s">
         <v>154</v>
-      </c>
-      <c r="E20" s="37" t="s">
-        <v>155</v>
       </c>
       <c r="F20" s="39" t="s">
         <v>131</v>
@@ -1709,7 +1717,7 @@
         <v>73</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>20</v>
@@ -1724,7 +1732,7 @@
         <v>23</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.3">
@@ -1785,7 +1793,7 @@
     <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="12"/>
       <c r="C29" s="10" t="s">
-        <v>124</v>
+        <v>167</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>118</v>
@@ -1854,10 +1862,10 @@
         <v>142</v>
       </c>
       <c r="E33" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="F33" s="14" t="s">
         <v>158</v>
-      </c>
-      <c r="F33" s="14" t="s">
-        <v>159</v>
       </c>
       <c r="G33" s="14" t="s">
         <v>38</v>
@@ -1866,7 +1874,7 @@
         <v>39</v>
       </c>
       <c r="I33" s="31" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.3">
@@ -1938,7 +1946,7 @@
         <v>48</v>
       </c>
       <c r="C38" s="25" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D38" s="18" t="s">
         <v>141</v>
@@ -1947,7 +1955,7 @@
         <v>49</v>
       </c>
       <c r="F38" s="14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G38" s="14" t="s">
         <v>50</v>
@@ -2025,7 +2033,7 @@
         <v>109</v>
       </c>
       <c r="D43" s="24" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E43" s="14" t="s">
         <v>55</v>
@@ -2111,13 +2119,13 @@
         <v>61</v>
       </c>
       <c r="C48" s="24" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D48" s="14" t="s">
         <v>62</v>
       </c>
       <c r="E48" s="14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F48" s="31" t="s">
         <v>99</v>

--- a/Notes/Leather_논리적물리적설계.xlsx
+++ b/Notes/Leather_논리적물리적설계.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="177">
   <si>
     <t>회원</t>
   </si>
@@ -648,6 +648,14 @@
   </si>
   <si>
     <t>관리자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원상태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>member_state</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1350,8 +1358,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:J49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1404,6 +1412,9 @@
       <c r="H4" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="I4" s="45" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B5" s="47" t="s">
@@ -1427,6 +1438,9 @@
       <c r="H5" s="2" t="s">
         <v>114</v>
       </c>
+      <c r="I5" s="45" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B6" s="47" t="s">
@@ -1449,6 +1463,9 @@
       </c>
       <c r="H6" s="2" t="s">
         <v>90</v>
+      </c>
+      <c r="I6" s="42" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="2:10" s="26" customFormat="1" x14ac:dyDescent="0.3">

--- a/Notes/Leather_논리적물리적설계.xlsx
+++ b/Notes/Leather_논리적물리적설계.xlsx
@@ -211,9 +211,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>배송준비중,배송중,배송완료</t>
-  </si>
-  <si>
     <t>배송번호</t>
   </si>
   <si>
@@ -419,10 +416,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>basket_deliverycost</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>varchar(45)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -447,59 +440,155 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>주문번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deliver_phone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deliver_waybillnum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>notice_</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지사항상태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q&amp;A작성일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q&amp;A상태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>review_</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리뷰상태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>review_no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime =&gt;now()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qna_writer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>notice_title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(255)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime =&gt;now()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>member_pw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>member_phone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>member_address</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>member_email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>basket_no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>basket_product_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>basket_member_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deliver_no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deliver_address</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deliver_recipient</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>product_title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>product_origin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>notice_contents</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>notice_views</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>notice_state</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qna_product_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qna_contents</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>review_product_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>upload_product_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>upload_filename</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>basket_total</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>주문번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>deliver_phone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>deliver_waybillnum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>notice_</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공지사항상태</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Q&amp;A작성일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Q&amp;A상태</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>review_</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>리뷰상태</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>review_no</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>datetime =&gt;now()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>qna_writer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>notice_title</t>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -507,106 +596,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>datetime =&gt;now()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>member_pw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>member_phone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>member_address</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>member_email</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>basket_no</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>basket_product_code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>basket_member_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>deliver_no</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>deliver_address</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>deliver_recipient</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>product_title</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>product_origin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>notice_contents</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>notice_views</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>notice_state</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>qna_product_code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>qna_contents</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>review_product_code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>upload_product_code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>upload_filename</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>basket_total</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(255)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>삭제,게시</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -656,6 +645,18 @@
   </si>
   <si>
     <t>member_state</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문완료,배송준비중,배송중,배송완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order_total</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deliverycost</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1358,8 +1359,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:J49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="I16" sqref="I14:I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1380,7 +1381,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -1392,7 +1393,7 @@
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B4" s="55" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C4" s="53" t="s">
         <v>3</v>
@@ -1413,44 +1414,44 @@
         <v>8</v>
       </c>
       <c r="I4" s="45" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B5" s="47" t="s">
+        <v>100</v>
+      </c>
+      <c r="C5" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C5" s="48" t="s">
+      <c r="E5" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>143</v>
-      </c>
       <c r="H5" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I5" s="45" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B6" s="47" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>11</v>
@@ -1459,13 +1460,13 @@
         <v>9</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I6" s="42" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="2:10" s="26" customFormat="1" x14ac:dyDescent="0.3">
@@ -1479,10 +1480,10 @@
     </row>
     <row r="8" spans="2:10" s="26" customFormat="1" ht="26.25" x14ac:dyDescent="0.3">
       <c r="B8" s="40" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C8" s="37" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D8" s="29"/>
       <c r="E8" s="29"/>
@@ -1492,7 +1493,7 @@
     </row>
     <row r="9" spans="2:10" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B9" s="51" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C9" s="52" t="s">
         <v>14</v>
@@ -1501,27 +1502,27 @@
         <v>2</v>
       </c>
       <c r="E9" s="45" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F9" s="45" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="2:10" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B10" s="47" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C10" s="46" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D10" s="46" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E10" s="45" t="s">
-        <v>117</v>
+        <v>176</v>
       </c>
       <c r="F10" s="45" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="11" spans="2:10" s="26" customFormat="1" x14ac:dyDescent="0.3">
@@ -1532,13 +1533,13 @@
         <v>9</v>
       </c>
       <c r="D11" s="46" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E11" s="42" t="s">
         <v>12</v>
       </c>
       <c r="F11" s="42" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.3">
@@ -1552,74 +1553,74 @@
     </row>
     <row r="13" spans="2:10" s="12" customFormat="1" ht="26.25" x14ac:dyDescent="0.3">
       <c r="B13" s="31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D13" s="29"/>
       <c r="E13" s="29" t="s">
-        <v>63</v>
+        <v>174</v>
       </c>
       <c r="F13" s="29"/>
       <c r="G13" s="28"/>
     </row>
     <row r="14" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B14" s="51" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C14" s="50" t="s">
         <v>2</v>
       </c>
       <c r="D14" s="52" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E14" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="F14" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="F14" s="30" t="s">
-        <v>66</v>
-      </c>
       <c r="G14" s="30" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H14" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I14" s="39" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J14" s="58" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B15" s="47" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C15" s="32" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D15" s="32" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E15" s="27" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F15" s="30" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G15" s="30" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I15" s="39" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J15" s="42" t="s">
-        <v>124</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.3">
@@ -1627,7 +1628,7 @@
         <v>9</v>
       </c>
       <c r="C16" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D16" s="46" t="s">
         <v>9</v>
@@ -1636,19 +1637,19 @@
         <v>12</v>
       </c>
       <c r="F16" s="30" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G16" s="27" t="s">
         <v>25</v>
       </c>
       <c r="H16" s="36" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I16" s="36" t="s">
         <v>12</v>
       </c>
       <c r="J16" s="42" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17" spans="2:9" s="26" customFormat="1" x14ac:dyDescent="0.3">
@@ -1662,10 +1663,10 @@
     </row>
     <row r="18" spans="2:9" s="26" customFormat="1" ht="26.25" x14ac:dyDescent="0.3">
       <c r="B18" s="35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C18" s="34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D18" s="34"/>
       <c r="E18" s="34"/>
@@ -1675,49 +1676,49 @@
     </row>
     <row r="19" spans="2:9" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B19" s="51" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C19" s="52" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D19" s="53" t="s">
+        <v>87</v>
+      </c>
+      <c r="E19" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="F19" s="54" t="s">
         <v>88</v>
       </c>
-      <c r="E19" s="53" t="s">
+      <c r="G19" s="53" t="s">
         <v>81</v>
-      </c>
-      <c r="F19" s="54" t="s">
-        <v>89</v>
-      </c>
-      <c r="G19" s="53" t="s">
-        <v>82</v>
       </c>
       <c r="H19" s="43"/>
     </row>
     <row r="20" spans="2:9" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B20" s="47" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C20" s="41" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D20" s="36" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E20" s="36" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F20" s="38" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G20" s="42" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="H20" s="43"/>
     </row>
     <row r="21" spans="2:9" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B21" s="47" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C21" s="41" t="s">
         <v>9</v>
@@ -1744,7 +1745,7 @@
         <v>13</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
@@ -1777,13 +1778,13 @@
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="47" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>20</v>
@@ -1792,10 +1793,10 @@
         <v>21</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.3">
@@ -1803,13 +1804,13 @@
         <v>9</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>22</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F26" s="13" t="s">
         <v>9</v>
@@ -1836,40 +1837,40 @@
         <v>61</v>
       </c>
       <c r="G27" s="45" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="H27" s="62" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="11"/>
       <c r="C28" s="9" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F28" s="16" t="s">
         <v>62</v>
       </c>
       <c r="G28" s="45" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="H28" s="61" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="11"/>
       <c r="C29" s="9" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E29" s="13" t="s">
         <v>25</v>
@@ -1878,16 +1879,16 @@
         <v>25</v>
       </c>
       <c r="G29" s="42" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H29" s="61" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="F30" s="15"/>
       <c r="G30" s="61" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="31" spans="2:9" ht="26.25" x14ac:dyDescent="0.3">
@@ -1895,7 +1896,7 @@
         <v>26</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D31" s="15"/>
       <c r="E31" s="15"/>
@@ -1903,7 +1904,7 @@
       <c r="G31" s="15"/>
       <c r="H31" s="15"/>
       <c r="I31" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.3">
@@ -1929,7 +1930,7 @@
         <v>32</v>
       </c>
       <c r="I32" s="30" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.3">
@@ -1937,16 +1938,16 @@
         <v>33</v>
       </c>
       <c r="C33" s="23" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E33" s="13" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F33" s="13" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G33" s="13" t="s">
         <v>34</v>
@@ -1955,7 +1956,7 @@
         <v>35</v>
       </c>
       <c r="I33" s="30" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.3">
@@ -1963,10 +1964,10 @@
         <v>36</v>
       </c>
       <c r="C34" s="23" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E34" s="13" t="s">
         <v>22</v>
@@ -1975,13 +1976,13 @@
         <v>37</v>
       </c>
       <c r="G34" s="13" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H34" s="23" t="s">
         <v>25</v>
       </c>
       <c r="I34" s="27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="36" spans="2:9" ht="26.25" x14ac:dyDescent="0.3">
@@ -1996,7 +1997,7 @@
       <c r="F36" s="12"/>
       <c r="G36" s="12"/>
       <c r="H36" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.3">
@@ -2016,10 +2017,10 @@
         <v>43</v>
       </c>
       <c r="G37" s="22" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H37" s="30" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.3">
@@ -2027,22 +2028,22 @@
         <v>44</v>
       </c>
       <c r="C38" s="24" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E38" s="13" t="s">
         <v>45</v>
       </c>
       <c r="F38" s="13" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G38" s="13" t="s">
         <v>46</v>
       </c>
       <c r="H38" s="30" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.3">
@@ -2053,7 +2054,7 @@
         <v>9</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E39" s="16" t="s">
         <v>10</v>
@@ -2062,10 +2063,10 @@
         <v>22</v>
       </c>
       <c r="G39" s="13" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H39" s="27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="41" spans="2:9" ht="26.25" x14ac:dyDescent="0.3">
@@ -2073,14 +2074,14 @@
         <v>47</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D41" s="12"/>
       <c r="E41" s="12"/>
       <c r="F41" s="12"/>
       <c r="G41" s="12"/>
       <c r="H41" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.3">
@@ -2103,18 +2104,18 @@
         <v>32</v>
       </c>
       <c r="H42" s="30" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="47" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C43" s="23" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D43" s="23" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E43" s="13" t="s">
         <v>51</v>
@@ -2123,10 +2124,10 @@
         <v>52</v>
       </c>
       <c r="G43" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="H43" s="30" t="s">
         <v>93</v>
-      </c>
-      <c r="H43" s="30" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.3">
@@ -2134,7 +2135,7 @@
         <v>36</v>
       </c>
       <c r="C44" s="23" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D44" s="23" t="s">
         <v>9</v>
@@ -2143,13 +2144,13 @@
         <v>22</v>
       </c>
       <c r="F44" s="13" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G44" s="23" t="s">
         <v>25</v>
       </c>
       <c r="H44" s="27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.3">
@@ -2171,14 +2172,14 @@
       <c r="D46" s="15"/>
       <c r="E46" s="15"/>
       <c r="F46" s="43" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G46" s="12"/>
       <c r="H46" s="12"/>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="59" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C47" s="52" t="s">
         <v>14</v>
@@ -2190,7 +2191,7 @@
         <v>56</v>
       </c>
       <c r="F47" s="30" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G47" s="12"/>
       <c r="H47" s="12"/>
@@ -2200,23 +2201,23 @@
         <v>57</v>
       </c>
       <c r="C48" s="23" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D48" s="13" t="s">
         <v>58</v>
       </c>
       <c r="E48" s="13" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F48" s="30" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G48" s="12"/>
       <c r="H48" s="12"/>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B49" s="47" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C49" s="23" t="s">
         <v>9</v>
@@ -2228,7 +2229,7 @@
         <v>9</v>
       </c>
       <c r="F49" s="27" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G49" s="12"/>
       <c r="H49" s="12"/>

--- a/Notes/Leather_논리적물리적설계.xlsx
+++ b/Notes/Leather_논리적물리적설계.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="172">
   <si>
     <t>회원</t>
   </si>
@@ -239,18 +239,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>주문비번</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>order_pw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원여부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>product_stock</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -388,10 +376,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>order_ismember</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>int =&gt; NN =&gt;AI</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -429,10 +413,6 @@
   </si>
   <si>
     <t>order_</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(5)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1357,10 +1337,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:J49"/>
+  <dimension ref="B3:I49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="I16" sqref="I14:I16"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1376,12 +1356,12 @@
     <col min="10" max="10" width="13.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:10" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:9" ht="26.25" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -1391,9 +1371,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="55" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C4" s="53" t="s">
         <v>3</v>
@@ -1414,44 +1394,44 @@
         <v>8</v>
       </c>
       <c r="I4" s="45" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B5" s="47" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C5" s="48" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="I5" s="45" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6" s="47" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>11</v>
@@ -1460,16 +1440,16 @@
         <v>9</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="I6" s="42" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" s="26" customFormat="1" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B7" s="28"/>
       <c r="C7" s="29"/>
       <c r="D7" s="29"/>
@@ -1478,12 +1458,12 @@
       <c r="G7" s="29"/>
       <c r="H7" s="29"/>
     </row>
-    <row r="8" spans="2:10" s="26" customFormat="1" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:9" s="26" customFormat="1" ht="26.25" x14ac:dyDescent="0.3">
       <c r="B8" s="40" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C8" s="37" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D8" s="29"/>
       <c r="E8" s="29"/>
@@ -1491,9 +1471,9 @@
       <c r="G8" s="29"/>
       <c r="H8" s="29"/>
     </row>
-    <row r="9" spans="2:10" s="26" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:9" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B9" s="51" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C9" s="52" t="s">
         <v>14</v>
@@ -1502,30 +1482,30 @@
         <v>2</v>
       </c>
       <c r="E9" s="45" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F9" s="45" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" s="26" customFormat="1" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B10" s="47" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C10" s="46" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D10" s="46" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E10" s="45" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="F10" s="45" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" s="26" customFormat="1" x14ac:dyDescent="0.3">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B11" s="47" t="s">
         <v>36</v>
       </c>
@@ -1533,16 +1513,16 @@
         <v>9</v>
       </c>
       <c r="D11" s="46" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E11" s="42" t="s">
         <v>12</v>
       </c>
       <c r="F11" s="42" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.3">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B12" s="14"/>
       <c r="C12" s="15"/>
       <c r="D12" s="15"/>
@@ -1551,23 +1531,23 @@
       <c r="G12" s="15"/>
       <c r="H12" s="15"/>
     </row>
-    <row r="13" spans="2:10" s="12" customFormat="1" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:9" s="12" customFormat="1" ht="26.25" x14ac:dyDescent="0.3">
       <c r="B13" s="31" t="s">
         <v>67</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D13" s="29"/>
       <c r="E13" s="29" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="F13" s="29"/>
       <c r="G13" s="28"/>
     </row>
-    <row r="14" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:9" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B14" s="51" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C14" s="50" t="s">
         <v>2</v>
@@ -1581,54 +1561,42 @@
       <c r="F14" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="G14" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="H14" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="I14" s="39" t="s">
-        <v>79</v>
-      </c>
-      <c r="J14" s="58" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G14" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="H14" s="58" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B15" s="47" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C15" s="32" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D15" s="32" t="s">
         <v>70</v>
       </c>
       <c r="E15" s="27" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F15" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="G15" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="H15" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="I15" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="J15" s="42" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G15" s="39" t="s">
+        <v>102</v>
+      </c>
+      <c r="H15" s="42" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B16" s="47" t="s">
         <v>9</v>
       </c>
       <c r="C16" s="32" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D16" s="46" t="s">
         <v>9</v>
@@ -1637,19 +1605,13 @@
         <v>12</v>
       </c>
       <c r="F16" s="30" t="s">
-        <v>121</v>
-      </c>
-      <c r="G16" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="H16" s="36" t="s">
-        <v>120</v>
-      </c>
-      <c r="I16" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="G16" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="J16" s="42" t="s">
-        <v>159</v>
+      <c r="H16" s="42" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="17" spans="2:9" s="26" customFormat="1" x14ac:dyDescent="0.3">
@@ -1663,10 +1625,10 @@
     </row>
     <row r="18" spans="2:9" s="26" customFormat="1" ht="26.25" x14ac:dyDescent="0.3">
       <c r="B18" s="35" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C18" s="34" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D18" s="34"/>
       <c r="E18" s="34"/>
@@ -1679,46 +1641,46 @@
         <v>63</v>
       </c>
       <c r="C19" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="D19" s="53" t="s">
         <v>84</v>
       </c>
-      <c r="D19" s="53" t="s">
-        <v>87</v>
-      </c>
       <c r="E19" s="53" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F19" s="54" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G19" s="53" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H19" s="43"/>
     </row>
     <row r="20" spans="2:9" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B20" s="47" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C20" s="41" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D20" s="36" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E20" s="36" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="F20" s="38" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="G20" s="42" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="H20" s="43"/>
     </row>
     <row r="21" spans="2:9" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B21" s="47" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C21" s="41" t="s">
         <v>9</v>
@@ -1745,7 +1707,7 @@
         <v>13</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
@@ -1781,10 +1743,10 @@
         <v>68</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>20</v>
@@ -1793,10 +1755,10 @@
         <v>21</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.3">
@@ -1804,13 +1766,13 @@
         <v>9</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>22</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F26" s="13" t="s">
         <v>9</v>
@@ -1837,40 +1799,40 @@
         <v>61</v>
       </c>
       <c r="G27" s="45" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="H27" s="62" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="11"/>
       <c r="C28" s="9" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F28" s="16" t="s">
         <v>62</v>
       </c>
       <c r="G28" s="45" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="H28" s="61" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="11"/>
       <c r="C29" s="9" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E29" s="13" t="s">
         <v>25</v>
@@ -1879,16 +1841,16 @@
         <v>25</v>
       </c>
       <c r="G29" s="42" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H29" s="61" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="F30" s="15"/>
       <c r="G30" s="61" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="31" spans="2:9" ht="26.25" x14ac:dyDescent="0.3">
@@ -1896,7 +1858,7 @@
         <v>26</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D31" s="15"/>
       <c r="E31" s="15"/>
@@ -1904,7 +1866,7 @@
       <c r="G31" s="15"/>
       <c r="H31" s="15"/>
       <c r="I31" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.3">
@@ -1930,7 +1892,7 @@
         <v>32</v>
       </c>
       <c r="I32" s="30" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.3">
@@ -1938,16 +1900,16 @@
         <v>33</v>
       </c>
       <c r="C33" s="23" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E33" s="13" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="F33" s="13" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="G33" s="13" t="s">
         <v>34</v>
@@ -1956,7 +1918,7 @@
         <v>35</v>
       </c>
       <c r="I33" s="30" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.3">
@@ -1964,10 +1926,10 @@
         <v>36</v>
       </c>
       <c r="C34" s="23" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E34" s="13" t="s">
         <v>22</v>
@@ -1976,13 +1938,13 @@
         <v>37</v>
       </c>
       <c r="G34" s="13" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="H34" s="23" t="s">
         <v>25</v>
       </c>
       <c r="I34" s="27" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="36" spans="2:9" ht="26.25" x14ac:dyDescent="0.3">
@@ -1997,7 +1959,7 @@
       <c r="F36" s="12"/>
       <c r="G36" s="12"/>
       <c r="H36" s="12" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.3">
@@ -2017,10 +1979,10 @@
         <v>43</v>
       </c>
       <c r="G37" s="22" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="H37" s="30" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.3">
@@ -2028,22 +1990,22 @@
         <v>44</v>
       </c>
       <c r="C38" s="24" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="E38" s="13" t="s">
         <v>45</v>
       </c>
       <c r="F38" s="13" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="G38" s="13" t="s">
         <v>46</v>
       </c>
       <c r="H38" s="30" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.3">
@@ -2054,7 +2016,7 @@
         <v>9</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E39" s="16" t="s">
         <v>10</v>
@@ -2063,10 +2025,10 @@
         <v>22</v>
       </c>
       <c r="G39" s="13" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="H39" s="27" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="41" spans="2:9" ht="26.25" x14ac:dyDescent="0.3">
@@ -2074,14 +2036,14 @@
         <v>47</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D41" s="12"/>
       <c r="E41" s="12"/>
       <c r="F41" s="12"/>
       <c r="G41" s="12"/>
       <c r="H41" s="12" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.3">
@@ -2104,18 +2066,18 @@
         <v>32</v>
       </c>
       <c r="H42" s="30" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="47" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C43" s="23" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D43" s="23" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="E43" s="13" t="s">
         <v>51</v>
@@ -2124,10 +2086,10 @@
         <v>52</v>
       </c>
       <c r="G43" s="23" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H43" s="30" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.3">
@@ -2135,7 +2097,7 @@
         <v>36</v>
       </c>
       <c r="C44" s="23" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D44" s="23" t="s">
         <v>9</v>
@@ -2144,13 +2106,13 @@
         <v>22</v>
       </c>
       <c r="F44" s="13" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="G44" s="23" t="s">
         <v>25</v>
       </c>
       <c r="H44" s="27" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.3">
@@ -2172,14 +2134,14 @@
       <c r="D46" s="15"/>
       <c r="E46" s="15"/>
       <c r="F46" s="43" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G46" s="12"/>
       <c r="H46" s="12"/>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="59" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C47" s="52" t="s">
         <v>14</v>
@@ -2191,7 +2153,7 @@
         <v>56</v>
       </c>
       <c r="F47" s="30" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G47" s="12"/>
       <c r="H47" s="12"/>
@@ -2201,23 +2163,23 @@
         <v>57</v>
       </c>
       <c r="C48" s="23" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D48" s="13" t="s">
         <v>58</v>
       </c>
       <c r="E48" s="13" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F48" s="30" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G48" s="12"/>
       <c r="H48" s="12"/>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B49" s="47" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C49" s="23" t="s">
         <v>9</v>
@@ -2229,7 +2191,7 @@
         <v>9</v>
       </c>
       <c r="F49" s="27" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G49" s="12"/>
       <c r="H49" s="12"/>
